--- a/Statystyki_2018/Template/aglc.xlsx
+++ b/Statystyki_2018/Template/aglc.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20325"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21629"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rskowron\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\myProjects\prv\statystyki\Statystyki_2018\Template\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{DC2B5596-E0D7-476F-A629-905E14D3A4ED}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D6A54C9-46FE-4850-8D41-FBF979E36C4E}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12225" activeTab="2" xr2:uid="{C7C193DA-AF25-4790-93ED-5473E6C0F9AD}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" activeTab="2" xr2:uid="{C7C193DA-AF25-4790-93ED-5473E6C0F9AD}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -28,10 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="42">
-  <si>
-    <t xml:space="preserve">Sprawozdanie miesięczne za miesiąc Lipiec 2018 roku </t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="42">
   <si>
     <t xml:space="preserve">Sprawozdanie miesięczne za miesiąc lipiec 2013 roku </t>
   </si>
@@ -154,6 +151,9 @@
   </si>
   <si>
     <t>Uwagi</t>
+  </si>
+  <si>
+    <t>Sprawozdanie miesięczne</t>
   </si>
 </sst>
 </file>
@@ -308,19 +308,10 @@
   </cellStyleXfs>
   <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -334,9 +325,6 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -347,6 +335,9 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -356,11 +347,20 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -682,197 +682,197 @@
       <selection activeCell="A2" sqref="A2:A4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="25" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:26" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A1" s="16" t="s">
+        <v>41</v>
+      </c>
+      <c r="B1" s="16"/>
+      <c r="C1" s="16"/>
+      <c r="D1" s="16"/>
+      <c r="E1" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1"/>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="16"/>
+      <c r="G1" s="16"/>
+      <c r="H1" s="16"/>
+      <c r="I1" s="16"/>
+      <c r="J1" s="16"/>
+      <c r="K1" s="16"/>
+      <c r="L1" s="16"/>
+      <c r="M1" s="16"/>
+      <c r="N1" s="16"/>
+      <c r="O1" s="16"/>
+      <c r="P1" s="16"/>
+      <c r="Q1" s="16"/>
+      <c r="R1" s="16"/>
+      <c r="S1" s="16"/>
+      <c r="T1" s="16"/>
+      <c r="U1" s="16"/>
+      <c r="V1" s="16"/>
+      <c r="W1" s="16"/>
+      <c r="X1" s="16"/>
+      <c r="Y1" s="1"/>
+      <c r="Z1" s="1"/>
+    </row>
+    <row r="2" spans="1:26" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A2" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="F1" s="1"/>
-      <c r="G1" s="1"/>
-      <c r="H1" s="1"/>
-      <c r="I1" s="1"/>
-      <c r="J1" s="1"/>
-      <c r="K1" s="1"/>
-      <c r="L1" s="1"/>
-      <c r="M1" s="1"/>
-      <c r="N1" s="1"/>
-      <c r="O1" s="1"/>
-      <c r="P1" s="1"/>
-      <c r="Q1" s="1"/>
-      <c r="R1" s="1"/>
-      <c r="S1" s="1"/>
-      <c r="T1" s="1"/>
-      <c r="U1" s="1"/>
-      <c r="V1" s="1"/>
-      <c r="W1" s="1"/>
-      <c r="X1" s="1"/>
-      <c r="Y1" s="2"/>
-      <c r="Z1" s="2"/>
-    </row>
-    <row r="2" spans="1:26" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="16" t="s">
+      <c r="B2" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="C2" s="12"/>
+      <c r="D2" s="12"/>
+      <c r="E2" s="12"/>
+      <c r="F2" s="12"/>
+      <c r="G2" s="12"/>
+      <c r="H2" s="12"/>
+      <c r="I2" s="12"/>
+      <c r="J2" s="12"/>
+      <c r="K2" s="12"/>
+      <c r="L2" s="12"/>
+      <c r="M2" s="12"/>
+      <c r="N2" s="12"/>
+      <c r="O2" s="12"/>
+      <c r="P2" s="12"/>
+      <c r="Q2" s="12"/>
+      <c r="R2" s="12"/>
+      <c r="S2" s="12"/>
+      <c r="T2" s="12"/>
+      <c r="U2" s="12"/>
+      <c r="V2" s="12"/>
+      <c r="W2" s="12"/>
+      <c r="X2" s="17" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="3"/>
-      <c r="D2" s="3"/>
-      <c r="E2" s="3"/>
-      <c r="F2" s="3"/>
-      <c r="G2" s="3"/>
-      <c r="H2" s="3"/>
-      <c r="I2" s="3"/>
-      <c r="J2" s="3"/>
-      <c r="K2" s="3"/>
-      <c r="L2" s="3"/>
-      <c r="M2" s="3"/>
-      <c r="N2" s="3"/>
-      <c r="O2" s="3"/>
-      <c r="P2" s="3"/>
-      <c r="Q2" s="3"/>
-      <c r="R2" s="3"/>
-      <c r="S2" s="3"/>
-      <c r="T2" s="3"/>
-      <c r="U2" s="3"/>
-      <c r="V2" s="3"/>
-      <c r="W2" s="3"/>
-      <c r="X2" s="4" t="s">
+      <c r="Y2" s="17"/>
+      <c r="Z2" s="17"/>
+    </row>
+    <row r="3" spans="1:26" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A3" s="14"/>
+      <c r="B3" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="Y2" s="4"/>
-      <c r="Z2" s="4"/>
-    </row>
-    <row r="3" spans="1:26" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="17"/>
-      <c r="B3" s="3" t="s">
+      <c r="C3" s="12"/>
+      <c r="D3" s="12"/>
+      <c r="E3" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="3"/>
-      <c r="D3" s="3"/>
-      <c r="E3" s="3" t="s">
+      <c r="F3" s="12"/>
+      <c r="G3" s="12"/>
+      <c r="H3" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="F3" s="3"/>
-      <c r="G3" s="3"/>
-      <c r="H3" s="3" t="s">
+      <c r="I3" s="12"/>
+      <c r="J3" s="12"/>
+      <c r="K3" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="I3" s="3"/>
-      <c r="J3" s="3"/>
-      <c r="K3" s="3" t="s">
+      <c r="L3" s="12"/>
+      <c r="M3" s="12"/>
+      <c r="N3" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="L3" s="3"/>
-      <c r="M3" s="3"/>
-      <c r="N3" s="3" t="s">
+      <c r="O3" s="12"/>
+      <c r="P3" s="12"/>
+      <c r="Q3" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="O3" s="3"/>
-      <c r="P3" s="3"/>
-      <c r="Q3" s="3" t="s">
+      <c r="R3" s="12"/>
+      <c r="S3" s="12"/>
+      <c r="T3" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="R3" s="3"/>
-      <c r="S3" s="3"/>
-      <c r="T3" s="5" t="s">
+      <c r="U3" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="U3" s="3" t="s">
+      <c r="V3" s="12"/>
+      <c r="W3" s="12"/>
+      <c r="X3" s="17"/>
+      <c r="Y3" s="17"/>
+      <c r="Z3" s="17"/>
+    </row>
+    <row r="4" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A4" s="15"/>
+      <c r="B4" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="V3" s="3"/>
-      <c r="W3" s="3"/>
-      <c r="X3" s="4"/>
-      <c r="Y3" s="4"/>
-      <c r="Z3" s="4"/>
-    </row>
-    <row r="4" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A4" s="18"/>
-      <c r="B4" s="6" t="s">
+      <c r="C4" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="C4" s="7" t="s">
+      <c r="D4" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="D4" s="7" t="s">
+      <c r="E4" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="F4" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="G4" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="H4" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="I4" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="J4" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="K4" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="L4" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="M4" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="N4" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="O4" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="P4" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q4" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="R4" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="S4" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="T4" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="U4" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="V4" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="E4" s="6" t="s">
+      <c r="W4" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="X4" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="Y4" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="F4" s="7" t="s">
+      <c r="Z4" s="3" t="s">
         <v>14</v>
-      </c>
-      <c r="G4" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="H4" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="I4" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="J4" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="K4" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="L4" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="M4" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="N4" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="O4" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="P4" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="Q4" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="R4" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="S4" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="T4" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="U4" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="V4" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="W4" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="X4" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="Y4" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="Z4" s="6" t="s">
-        <v>15</v>
       </c>
     </row>
   </sheetData>
@@ -901,182 +901,182 @@
       <selection activeCell="J1" sqref="A1:J11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="30.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="30.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="14" t="s">
+    <row r="1" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A1" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="B1" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="F1" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="G1" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="B1" s="12" t="s">
-        <v>5</v>
-      </c>
-      <c r="C1" s="12" t="s">
-        <v>6</v>
-      </c>
-      <c r="D1" s="12" t="s">
-        <v>7</v>
-      </c>
-      <c r="E1" s="12" t="s">
-        <v>8</v>
-      </c>
-      <c r="F1" s="12" t="s">
-        <v>9</v>
-      </c>
-      <c r="G1" s="12" t="s">
+      <c r="H1" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="I1" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="J1" s="8" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A2" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="H1" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="I1" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="J1" s="12" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="15" t="s">
+      <c r="B2" s="8"/>
+      <c r="C2" s="8"/>
+      <c r="D2" s="8"/>
+      <c r="E2" s="8"/>
+      <c r="F2" s="8"/>
+      <c r="G2" s="8"/>
+      <c r="H2" s="8"/>
+      <c r="I2" s="8"/>
+      <c r="J2" s="8"/>
+    </row>
+    <row r="3" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A3" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="B2" s="12"/>
-      <c r="C2" s="12"/>
-      <c r="D2" s="12"/>
-      <c r="E2" s="12"/>
-      <c r="F2" s="12"/>
-      <c r="G2" s="12"/>
-      <c r="H2" s="12"/>
-      <c r="I2" s="12"/>
-      <c r="J2" s="12"/>
-    </row>
-    <row r="3" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="15" t="s">
+      <c r="B3" s="8"/>
+      <c r="C3" s="8"/>
+      <c r="D3" s="8"/>
+      <c r="E3" s="8"/>
+      <c r="F3" s="8"/>
+      <c r="G3" s="8"/>
+      <c r="H3" s="8"/>
+      <c r="I3" s="8"/>
+      <c r="J3" s="8"/>
+    </row>
+    <row r="4" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A4" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="B3" s="12"/>
-      <c r="C3" s="12"/>
-      <c r="D3" s="12"/>
-      <c r="E3" s="12"/>
-      <c r="F3" s="12"/>
-      <c r="G3" s="12"/>
-      <c r="H3" s="12"/>
-      <c r="I3" s="12"/>
-      <c r="J3" s="12"/>
-    </row>
-    <row r="4" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A4" s="15" t="s">
+      <c r="B4" s="8"/>
+      <c r="C4" s="8"/>
+      <c r="D4" s="8"/>
+      <c r="E4" s="8"/>
+      <c r="F4" s="8"/>
+      <c r="G4" s="8"/>
+      <c r="H4" s="8"/>
+      <c r="I4" s="8"/>
+      <c r="J4" s="8"/>
+    </row>
+    <row r="5" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A5" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="B4" s="12"/>
-      <c r="C4" s="12"/>
-      <c r="D4" s="12"/>
-      <c r="E4" s="12"/>
-      <c r="F4" s="12"/>
-      <c r="G4" s="12"/>
-      <c r="H4" s="12"/>
-      <c r="I4" s="12"/>
-      <c r="J4" s="12"/>
-    </row>
-    <row r="5" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A5" s="15" t="s">
+      <c r="B5" s="8"/>
+      <c r="C5" s="8"/>
+      <c r="D5" s="8"/>
+      <c r="E5" s="8"/>
+      <c r="F5" s="8"/>
+      <c r="G5" s="8"/>
+      <c r="H5" s="8"/>
+      <c r="I5" s="8"/>
+      <c r="J5" s="8"/>
+    </row>
+    <row r="6" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A6" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="B5" s="12"/>
-      <c r="C5" s="12"/>
-      <c r="D5" s="12"/>
-      <c r="E5" s="12"/>
-      <c r="F5" s="12"/>
-      <c r="G5" s="12"/>
-      <c r="H5" s="12"/>
-      <c r="I5" s="12"/>
-      <c r="J5" s="12"/>
-    </row>
-    <row r="6" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A6" s="15" t="s">
+      <c r="B6" s="8"/>
+      <c r="C6" s="8"/>
+      <c r="D6" s="8"/>
+      <c r="E6" s="8"/>
+      <c r="F6" s="8"/>
+      <c r="G6" s="8"/>
+      <c r="H6" s="8"/>
+      <c r="I6" s="8"/>
+      <c r="J6" s="8"/>
+    </row>
+    <row r="7" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A7" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="B6" s="12"/>
-      <c r="C6" s="12"/>
-      <c r="D6" s="12"/>
-      <c r="E6" s="12"/>
-      <c r="F6" s="12"/>
-      <c r="G6" s="12"/>
-      <c r="H6" s="12"/>
-      <c r="I6" s="12"/>
-      <c r="J6" s="12"/>
-    </row>
-    <row r="7" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A7" s="15" t="s">
+      <c r="B7" s="8"/>
+      <c r="C7" s="8"/>
+      <c r="D7" s="8"/>
+      <c r="E7" s="8"/>
+      <c r="F7" s="8"/>
+      <c r="G7" s="8"/>
+      <c r="H7" s="8"/>
+      <c r="I7" s="8"/>
+      <c r="J7" s="8"/>
+    </row>
+    <row r="8" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A8" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="B7" s="12"/>
-      <c r="C7" s="12"/>
-      <c r="D7" s="12"/>
-      <c r="E7" s="12"/>
-      <c r="F7" s="12"/>
-      <c r="G7" s="12"/>
-      <c r="H7" s="12"/>
-      <c r="I7" s="12"/>
-      <c r="J7" s="12"/>
-    </row>
-    <row r="8" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A8" s="15" t="s">
+      <c r="B8" s="8"/>
+      <c r="C8" s="8"/>
+      <c r="D8" s="8"/>
+      <c r="E8" s="8"/>
+      <c r="F8" s="8"/>
+      <c r="G8" s="8"/>
+      <c r="H8" s="8"/>
+      <c r="I8" s="8"/>
+      <c r="J8" s="8"/>
+    </row>
+    <row r="9" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A9" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="B8" s="12"/>
-      <c r="C8" s="12"/>
-      <c r="D8" s="12"/>
-      <c r="E8" s="12"/>
-      <c r="F8" s="12"/>
-      <c r="G8" s="12"/>
-      <c r="H8" s="12"/>
-      <c r="I8" s="12"/>
-      <c r="J8" s="12"/>
-    </row>
-    <row r="9" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A9" s="15" t="s">
+      <c r="B9" s="8"/>
+      <c r="C9" s="8"/>
+      <c r="D9" s="8"/>
+      <c r="E9" s="8"/>
+      <c r="F9" s="8"/>
+      <c r="G9" s="8"/>
+      <c r="H9" s="8"/>
+      <c r="I9" s="8"/>
+      <c r="J9" s="8"/>
+    </row>
+    <row r="10" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A10" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="B9" s="12"/>
-      <c r="C9" s="12"/>
-      <c r="D9" s="12"/>
-      <c r="E9" s="12"/>
-      <c r="F9" s="12"/>
-      <c r="G9" s="12"/>
-      <c r="H9" s="12"/>
-      <c r="I9" s="12"/>
-      <c r="J9" s="12"/>
-    </row>
-    <row r="10" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A10" s="15" t="s">
+      <c r="B10" s="8"/>
+      <c r="C10" s="8"/>
+      <c r="D10" s="8"/>
+      <c r="E10" s="8"/>
+      <c r="F10" s="8"/>
+      <c r="G10" s="8"/>
+      <c r="H10" s="8"/>
+      <c r="I10" s="8"/>
+      <c r="J10" s="8"/>
+    </row>
+    <row r="11" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A11" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="B10" s="12"/>
-      <c r="C10" s="12"/>
-      <c r="D10" s="12"/>
-      <c r="E10" s="12"/>
-      <c r="F10" s="12"/>
-      <c r="G10" s="12"/>
-      <c r="H10" s="12"/>
-      <c r="I10" s="12"/>
-      <c r="J10" s="12"/>
-    </row>
-    <row r="11" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A11" s="15" t="s">
-        <v>29</v>
-      </c>
-      <c r="B11" s="12"/>
-      <c r="C11" s="12"/>
-      <c r="D11" s="12"/>
-      <c r="E11" s="12"/>
-      <c r="F11" s="12"/>
-      <c r="G11" s="12"/>
-      <c r="H11" s="12"/>
-      <c r="I11" s="12"/>
-      <c r="J11" s="12"/>
+      <c r="B11" s="8"/>
+      <c r="C11" s="8"/>
+      <c r="D11" s="8"/>
+      <c r="E11" s="8"/>
+      <c r="F11" s="8"/>
+      <c r="G11" s="8"/>
+      <c r="H11" s="8"/>
+      <c r="I11" s="8"/>
+      <c r="J11" s="8"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1087,121 +1087,122 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{678C2C53-6606-4292-91AA-C7B01CE342A2}">
   <dimension ref="A1:Z2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="Y3" sqref="Y3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="35.140625" customWidth="1"/>
+    <col min="1" max="1" width="35.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="19" t="s">
-        <v>2</v>
-      </c>
-      <c r="B1" s="3" t="s">
+    <row r="1" spans="1:26" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A1" s="18" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1" s="12"/>
+      <c r="D1" s="12"/>
+      <c r="E1" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="C1" s="3"/>
-      <c r="D1" s="3"/>
-      <c r="E1" s="3" t="s">
+      <c r="F1" s="12"/>
+      <c r="G1" s="12"/>
+      <c r="H1" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="F1" s="3"/>
-      <c r="G1" s="3"/>
-      <c r="H1" s="3" t="s">
+      <c r="I1" s="12"/>
+      <c r="J1" s="12"/>
+      <c r="K1" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="3"/>
-      <c r="J1" s="3"/>
-      <c r="K1" s="3" t="s">
+      <c r="L1" s="12"/>
+      <c r="M1" s="12"/>
+      <c r="N1" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="L1" s="3"/>
-      <c r="M1" s="3"/>
-      <c r="N1" s="3" t="s">
+      <c r="O1" s="12"/>
+      <c r="P1" s="12"/>
+      <c r="Q1" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="O1" s="3"/>
-      <c r="P1" s="3"/>
-      <c r="Q1" s="3" t="s">
+      <c r="R1" s="12"/>
+      <c r="S1" s="12"/>
+      <c r="T1" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="R1" s="3"/>
-      <c r="S1" s="3"/>
-      <c r="T1" s="3" t="s">
+      <c r="U1" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="U1" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="V1" s="3"/>
-      <c r="W1" s="3"/>
-      <c r="X1" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="Y1" s="3"/>
-      <c r="Z1" s="3"/>
-    </row>
-    <row r="2" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A2" s="20"/>
-      <c r="B2" s="9" t="s">
+      <c r="V1" s="12"/>
+      <c r="W1" s="12"/>
+      <c r="X1" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="Y1" s="12"/>
+      <c r="Z1" s="12"/>
+    </row>
+    <row r="2" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A2" s="19"/>
+      <c r="B2" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="C2" s="20" t="s">
         <v>30</v>
       </c>
-      <c r="C2" s="10" t="s">
-        <v>31</v>
-      </c>
-      <c r="D2" s="10"/>
-      <c r="E2" s="9" t="s">
+      <c r="D2" s="20"/>
+      <c r="E2" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="F2" s="20" t="s">
         <v>30</v>
       </c>
-      <c r="F2" s="10" t="s">
-        <v>31</v>
-      </c>
-      <c r="G2" s="10"/>
-      <c r="H2" s="9" t="s">
+      <c r="G2" s="20"/>
+      <c r="H2" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="I2" s="20" t="s">
         <v>30</v>
       </c>
-      <c r="I2" s="10" t="s">
-        <v>31</v>
-      </c>
-      <c r="J2" s="10"/>
-      <c r="K2" s="9" t="s">
+      <c r="J2" s="20"/>
+      <c r="K2" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="L2" s="20" t="s">
         <v>30</v>
       </c>
-      <c r="L2" s="10" t="s">
-        <v>31</v>
-      </c>
-      <c r="M2" s="10"/>
-      <c r="N2" s="9" t="s">
+      <c r="M2" s="20"/>
+      <c r="N2" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="O2" s="20" t="s">
         <v>30</v>
       </c>
-      <c r="O2" s="10" t="s">
-        <v>31</v>
-      </c>
-      <c r="P2" s="10"/>
-      <c r="Q2" s="9" t="s">
+      <c r="P2" s="20"/>
+      <c r="Q2" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="R2" s="20" t="s">
         <v>30</v>
       </c>
-      <c r="R2" s="10" t="s">
-        <v>31</v>
-      </c>
-      <c r="S2" s="10"/>
-      <c r="T2" s="3"/>
-      <c r="U2" s="3"/>
-      <c r="V2" s="3"/>
-      <c r="W2" s="3"/>
-      <c r="X2" s="9" t="s">
+      <c r="S2" s="20"/>
+      <c r="T2" s="12"/>
+      <c r="U2" s="12"/>
+      <c r="V2" s="12"/>
+      <c r="W2" s="12"/>
+      <c r="X2" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="Y2" s="20" t="s">
         <v>30</v>
       </c>
-      <c r="Y2" s="10">
-        <v>6</v>
-      </c>
-      <c r="Z2" s="10"/>
+      <c r="Z2" s="20"/>
     </row>
   </sheetData>
   <mergeCells count="17">
+    <mergeCell ref="Q1:S1"/>
     <mergeCell ref="A1:A2"/>
     <mergeCell ref="T1:T2"/>
     <mergeCell ref="U1:W2"/>
@@ -1218,7 +1219,6 @@
     <mergeCell ref="H1:J1"/>
     <mergeCell ref="K1:M1"/>
     <mergeCell ref="N1:P1"/>
-    <mergeCell ref="Q1:S1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1232,84 +1232,84 @@
       <selection sqref="A1:C9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="38.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="38.5546875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" s="12"/>
-      <c r="B1" s="12" t="s">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1" s="8"/>
+      <c r="B1" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="C1" s="8" t="s">
         <v>40</v>
       </c>
-      <c r="C1" s="12" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="13" t="s">
+    </row>
+    <row r="2" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A2" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="B2" s="9"/>
+      <c r="C2" s="9"/>
+      <c r="D2" s="7"/>
+    </row>
+    <row r="3" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A3" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="B2" s="13"/>
-      <c r="C2" s="13"/>
-      <c r="D2" s="11"/>
-    </row>
-    <row r="3" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="13" t="s">
+      <c r="B3" s="9"/>
+      <c r="C3" s="9"/>
+      <c r="D3" s="7"/>
+    </row>
+    <row r="4" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A4" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="B3" s="13"/>
-      <c r="C3" s="13"/>
-      <c r="D3" s="11"/>
-    </row>
-    <row r="4" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A4" s="13" t="s">
+      <c r="B4" s="9"/>
+      <c r="C4" s="9"/>
+      <c r="D4" s="7"/>
+    </row>
+    <row r="5" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A5" s="9" t="s">
         <v>34</v>
       </c>
-      <c r="B4" s="13"/>
-      <c r="C4" s="13"/>
-      <c r="D4" s="11"/>
-    </row>
-    <row r="5" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A5" s="13" t="s">
+      <c r="B5" s="9"/>
+      <c r="C5" s="9"/>
+      <c r="D5" s="7"/>
+    </row>
+    <row r="6" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A6" s="9" t="s">
         <v>35</v>
       </c>
-      <c r="B5" s="13"/>
-      <c r="C5" s="13"/>
-      <c r="D5" s="11"/>
-    </row>
-    <row r="6" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A6" s="13" t="s">
+      <c r="B6" s="9"/>
+      <c r="C6" s="9"/>
+      <c r="D6" s="7"/>
+    </row>
+    <row r="7" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A7" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="B6" s="13"/>
-      <c r="C6" s="13"/>
-      <c r="D6" s="11"/>
-    </row>
-    <row r="7" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A7" s="13" t="s">
+      <c r="B7" s="9"/>
+      <c r="C7" s="9"/>
+      <c r="D7" s="7"/>
+    </row>
+    <row r="8" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A8" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="B7" s="13"/>
-      <c r="C7" s="13"/>
-      <c r="D7" s="11"/>
-    </row>
-    <row r="8" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A8" s="13" t="s">
+      <c r="B8" s="9"/>
+      <c r="C8" s="9"/>
+      <c r="D8" s="7"/>
+    </row>
+    <row r="9" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A9" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="B8" s="13"/>
-      <c r="C8" s="13"/>
-      <c r="D8" s="11"/>
-    </row>
-    <row r="9" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A9" s="13" t="s">
-        <v>39</v>
-      </c>
-      <c r="B9" s="13"/>
-      <c r="C9" s="13"/>
-      <c r="D9" s="11"/>
+      <c r="B9" s="9"/>
+      <c r="C9" s="9"/>
+      <c r="D9" s="7"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
